--- a/biology/Médecine/Nerf_sural/Nerf_sural.xlsx
+++ b/biology/Médecine/Nerf_sural/Nerf_sural.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf sural (ou nerf saphène externe) est un nerf sensitif du membre inférieur.
 </t>
@@ -511,11 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf sural nait au milieu de la face postérieure de la jambe de la convergence du nerf cutané sural médial et de la branche communicante surale avec le nerf cutané sural latéral.
-Variation
-Il existe huit variations documentées de la formation par anastomose du nerf sural et du plexus nerveux formé par l'ensemble des trois nerfs : nerf sural, nerf cutané sural médial et branche communicante avec le nerf cutané sural latéral..
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Trajet</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le nerf sural descend sur la face postérieure du mollet d'abord satellite de la veine saphène, puis latéralement au tendon calcanéen et passe en arrière de la malléole externe.
-Il se termine en nerf cutané dorsal latéral et donne les rameaux calcanéens latéraux.
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe huit variations documentées de la formation par anastomose du nerf sural et du plexus nerveux formé par l'ensemble des trois nerfs : nerf sural, nerf cutané sural médial et branche communicante avec le nerf cutané sural latéral..
 </t>
         </is>
       </c>
@@ -573,10 +590,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf sural descend sur la face postérieure du mollet d'abord satellite de la veine saphène, puis latéralement au tendon calcanéen et passe en arrière de la malléole externe.
+Il se termine en nerf cutané dorsal latéral et donne les rameaux calcanéens latéraux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_sural</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_sural</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf sural donne quelques filets à la cheville.
 Par ses branches terminales, il assure l'innervation sensitive des téguments de la partie inférieure et latérale de la jambe et la région malléolaire externe.
